--- a/HW1/HW1Plot.xlsx
+++ b/HW1/HW1Plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saberda\Documents\文件\ComputerSecurity\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F2CA62B-0369-4BF7-A454-6923932FE130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2ACF7D-16C2-456A-B630-09E58E73AEF7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EF00C567-37E1-4F01-BECC-8F1FF3E63818}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Problem 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -616,7 +642,488 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Problem 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$1:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>d</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>e</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>f</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>h</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>i</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>j</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>k</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>l</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>m</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>n</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>o</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>p</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>q</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>r</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>s</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>t</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>u</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>v</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>w</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>x</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>y</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$1:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-205A-42E8-862E-A0D2F4CC9B93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1789282896"/>
+        <c:axId val="1527347440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1789282896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1527347440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1527347440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1789282896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1159,6 +1666,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1192,6 +2202,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8D0E4E-AA40-45E7-8054-180E2049EACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1497,220 +2543,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779038E6-E551-4D19-8CAC-3A65ACE4A297}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>111</v>
       </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>17</v>
       </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>42</v>
       </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>44</v>
       </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>192</v>
       </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>111</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>29</v>
       </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>23</v>
       </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>83</v>
       </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>81</v>
       </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>192</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>29</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>11</v>
       </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>47</v>
       </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>83</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>23</v>
       </c>
+      <c r="M13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>81</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>111</v>
       </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>125</v>
       </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>39</v>
       </c>
+      <c r="M16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>47</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>23</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>89</v>
       </c>
+      <c r="M18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>111</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>86</v>
       </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>125</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>136</v>
       </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>39</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>46</v>
       </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22">
+        <v>89</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>31</v>
       </c>
+      <c r="M23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>86</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>136</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>13</v>
       </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25">
+        <v>46</v>
+      </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
